--- a/data/sample-spring-kafka-microservices/sample-spring-kafka-microservices_structure.xlsx
+++ b/data/sample-spring-kafka-microservices/sample-spring-kafka-microservices_structure.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="feignRelations" r:id="rId3" sheetId="1"/>
+    <sheet name="kafkaRelations" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="37">
   <si>
     <t>Source Service Name</t>
   </si>
@@ -30,6 +31,99 @@
   </si>
   <si>
     <t>Target Operation Signature</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Target Class Name</t>
+  </si>
+  <si>
+    <t>Target Method Signature</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>stock-service</t>
+  </si>
+  <si>
+    <t>pl.piomin.stock.StockComponentTests</t>
+  </si>
+  <si>
+    <t>eventReject()</t>
+  </si>
+  <si>
+    <t>order-service</t>
+  </si>
+  <si>
+    <t>pl.piomin.order.OrderControllerTests</t>
+  </si>
+  <si>
+    <t>add()</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>pl.piomin.stock.service.OrderManageService</t>
+  </si>
+  <si>
+    <t>reserve(pl.piomin.base.domain.Order)</t>
+  </si>
+  <si>
+    <t>pl.piomin.order.OrderApp</t>
+  </si>
+  <si>
+    <t>stream(org.apache.kafka.streams.StreamsBuilder)</t>
+  </si>
+  <si>
+    <t>stock-orders</t>
+  </si>
+  <si>
+    <t>payment-service</t>
+  </si>
+  <si>
+    <t>pl.piomin.payment.PaymentComponentTests</t>
+  </si>
+  <si>
+    <t>eventConfirm()</t>
+  </si>
+  <si>
+    <t>pl.piomin.stock.StockApp</t>
+  </si>
+  <si>
+    <t>onEvent(pl.piomin.base.domain.Order)</t>
+  </si>
+  <si>
+    <t>pl.piomin.payment.PaymentApp</t>
+  </si>
+  <si>
+    <t>table(org.apache.kafka.streams.StreamsBuilder)</t>
+  </si>
+  <si>
+    <t>pl.piomin.payment.service.OrderManageService</t>
+  </si>
+  <si>
+    <t>payment-orders</t>
+  </si>
+  <si>
+    <t>eventAccept()</t>
+  </si>
+  <si>
+    <t>pl.piomin.order.controller.OrderController</t>
+  </si>
+  <si>
+    <t>create(pl.piomin.base.domain.Order)</t>
+  </si>
+  <si>
+    <t>pl.piomin.order.service.OrderGeneratorService</t>
+  </si>
+  <si>
+    <t>generate()</t>
   </si>
 </sst>
 </file>
@@ -74,7 +168,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -99,6 +193,672 @@
       <c r="F1" t="s" s="0">
         <v>5</v>
       </c>
+      <c r="G1" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H16" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H19" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="G21" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="G22" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H22" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="G23" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H23" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="F24" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="G24" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H24" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="G25" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H25" t="s" s="0">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/data/sample-spring-kafka-microservices/sample-spring-kafka-microservices_structure.xlsx
+++ b/data/sample-spring-kafka-microservices/sample-spring-kafka-microservices_structure.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="52">
   <si>
     <t>Source Service Name</t>
   </si>
@@ -28,34 +28,76 @@
     <t>Target Class Name</t>
   </si>
   <si>
+    <t>Caller Method Signature</t>
+  </si>
+  <si>
+    <t>Called Method Signature</t>
+  </si>
+  <si>
     <t>Weight</t>
   </si>
   <si>
     <t>stock-service</t>
   </si>
   <si>
+    <t>pl.piomin.stock.StockApp</t>
+  </si>
+  <si>
+    <t>base-domain</t>
+  </si>
+  <si>
+    <t>pl.piomin.base.domain.Order</t>
+  </si>
+  <si>
+    <t>onEvent(pl.piomin.base.domain.Order)</t>
+  </si>
+  <si>
+    <t>getStatus()</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>pl.piomin.stock.StockComponentTests</t>
+  </si>
+  <si>
+    <t>eventConfirm()</t>
+  </si>
+  <si>
+    <t>getId()</t>
+  </si>
+  <si>
     <t>pl.piomin.stock.service.OrderManageService</t>
   </si>
   <si>
-    <t>base-domain</t>
-  </si>
-  <si>
-    <t>pl.piomin.base.domain.Order</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>pl.piomin.stock.StockApp</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>pl.piomin.stock.StockComponentTests</t>
-  </si>
-  <si>
-    <t>6</t>
+    <t>confirm(pl.piomin.base.domain.Order)</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>eventReject()</t>
+  </si>
+  <si>
+    <t>reserve(pl.piomin.base.domain.Order)</t>
+  </si>
+  <si>
+    <t>eventAccept()</t>
+  </si>
+  <si>
+    <t>getProductCount()</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>setStatus(java.lang.String)</t>
+  </si>
+  <si>
+    <t>getProductId()</t>
+  </si>
+  <si>
+    <t>getSource()</t>
   </si>
   <si>
     <t>payment-service</t>
@@ -64,40 +106,70 @@
     <t>pl.piomin.payment.service.OrderManageService</t>
   </si>
   <si>
+    <t>getCustomerId()</t>
+  </si>
+  <si>
     <t>pl.piomin.payment.PaymentComponentTests</t>
   </si>
   <si>
+    <t>getPrice()</t>
+  </si>
+  <si>
     <t>pl.piomin.payment.PaymentApp</t>
   </si>
   <si>
+    <t>setSource(java.lang.String)</t>
+  </si>
+  <si>
     <t>order-service</t>
   </si>
   <si>
     <t>pl.piomin.order.service.OrderGeneratorService</t>
   </si>
   <si>
-    <t>3</t>
+    <t>generate()</t>
+  </si>
+  <si>
+    <t>setProductCount(int)</t>
+  </si>
+  <si>
+    <t>setPrice(int)</t>
   </si>
   <si>
     <t>pl.piomin.order.service.OrderManageService</t>
   </si>
   <si>
-    <t>16</t>
+    <t>confirm(pl.piomin.base.domain.Order, pl.piomin.base.domain.Order)</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>pl.piomin.order.controller.OrderController</t>
+  </si>
+  <si>
+    <t>create(pl.piomin.base.domain.Order)</t>
+  </si>
+  <si>
+    <t>setId(java.lang.Long)</t>
   </si>
   <si>
     <t>pl.piomin.order.OrderControllerTests</t>
   </si>
   <si>
-    <t>pl.piomin.order.controller.OrderController</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>add()</t>
   </si>
   <si>
     <t>Target Interface Name</t>
   </si>
   <si>
     <t>pl.piomin.order.OrderApp</t>
+  </si>
+  <si>
+    <t>table(org.apache.kafka.streams.StreamsBuilder)</t>
+  </si>
+  <si>
+    <t>stream(org.apache.kafka.streams.StreamsBuilder)</t>
   </si>
 </sst>
 </file>
@@ -142,7 +214,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -164,175 +236,1069 @@
       <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="F1" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C4" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>13</v>
+      <c r="G4" t="s" s="0">
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>15</v>
-      </c>
       <c r="C5" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>9</v>
+        <v>20</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="C6" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s" s="0">
+      <c r="G6" t="s" s="0">
         <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B7" t="s" s="0">
-        <v>17</v>
-      </c>
       <c r="C7" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>11</v>
+        <v>22</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="B10" t="s" s="0">
+      <c r="F10" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="C10" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s" s="0">
-        <v>11</v>
+      <c r="G10" t="s" s="0">
+        <v>24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="B11" t="s" s="0">
+      <c r="F14" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="G16" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="C11" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s" s="0">
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s" s="0">
         <v>25</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G22" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="G23" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F24" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="G24" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="G25" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F26" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G26" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F27" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="G27" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F28" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F29" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="G29" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F30" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F31" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F32" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="G32" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F33" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="F34" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="G34" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="F35" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="G35" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="F36" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="G36" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="F37" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="F38" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="G38" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="F39" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="G39" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="G40" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="F41" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G41" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E42" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="F42" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G42" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E43" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="F43" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="G43" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E44" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="G44" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E45" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="F45" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="G45" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E46" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="F46" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="G46" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E47" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="F47" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="G47" t="s" s="0">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -342,7 +1308,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -359,10 +1325,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="E1" t="s" s="0">
         <v>4</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -372,7 +1344,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -394,209 +1366,563 @@
       <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="F1" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>16</v>
-      </c>
       <c r="C2" t="s" s="0">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>11</v>
+        <v>22</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>11</v>
+        <v>22</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B7" t="s" s="0">
-        <v>16</v>
-      </c>
       <c r="C7" t="s" s="0">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s" s="0">
         <v>11</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s" s="0">
         <v>11</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s" s="0">
         <v>20</v>
       </c>
+      <c r="F11" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>13</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="D13" t="s" s="0">
+      <c r="C14" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="E13" t="s" s="0">
+      <c r="C16" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s" s="0">
         <v>11</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="G22" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="G25" t="s" s="0">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
